--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_09-02.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_09-02.xlsx
@@ -30,6 +30,39 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CONCOR 5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>Sunday, 4 January, 2026 9:02 AM</t>
@@ -214,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -234,14 +267,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -611,52 +647,192 @@
     </row>
     <row r="4" ht="24.75" customHeight="1">
       <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>1</v>
+      </c>
+      <c t="s" r="B4" s="7">
+        <v>7</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c t="s" r="H4" s="8">
+        <v>8</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9">
+        <v>86</v>
+      </c>
       <c r="M4" s="9"/>
-      <c r="N4" s="7"/>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c t="s" r="A6" s="11">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c t="s" r="F6" s="12">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c t="s" r="B5" s="7">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c t="s" r="H5" s="8">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9">
+        <v>24</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c t="s" r="B6" s="7">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c t="s" r="H6" s="8">
         <v>8</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c t="s" r="I6" s="14">
-        <v>9</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9">
+        <v>72</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c t="s" r="B7" s="7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c t="s" r="H7" s="8">
+        <v>13</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9">
+        <v>16</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" customHeight="1">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c t="s" r="B8" s="7">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c t="s" r="H8" s="8">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9">
+        <v>169.19999999999999</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="24.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c t="s" r="B9" s="7">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c t="s" r="H9" s="8">
+        <v>17</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9">
+        <v>108</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="26.25" customHeight="1">
+      <c r="K10" s="11">
+        <v>475.19999999999999</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="12">
+        <v>18</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c t="s" r="F11" s="13">
+        <v>19</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c t="s" r="I11" s="15">
+        <v>20</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="29">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -667,10 +843,25 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:N11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
